--- a/mc/indicators/xl/saving.xlsx
+++ b/mc/indicators/xl/saving.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="111">
   <si>
     <t>Economy</t>
   </si>
@@ -8510,104 +8510,104 @@
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
+      <c r="B19" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>23.5</v>
       </c>
       <c r="D19" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22.4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>23.2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="I19" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>23.7</v>
+      </c>
+      <c r="M19" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="N19" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="P19" s="1">
+        <v>22.1</v>
+      </c>
+      <c r="Q19" s="1">
         <v>22.2</v>
       </c>
-      <c r="E19" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="F19" s="1">
-        <v>22.1</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="R19" s="1">
+        <v>23</v>
+      </c>
+      <c r="S19" s="1">
         <v>22.6</v>
       </c>
-      <c r="H19" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="I19" s="1">
-        <v>23.6</v>
-      </c>
-      <c r="J19" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="K19" s="1">
-        <v>23</v>
-      </c>
-      <c r="L19" s="1">
-        <v>23.2</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="T19" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="W19" s="1">
+        <v>21</v>
+      </c>
+      <c r="X19" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>21.6</v>
+      </c>
+      <c r="Z19" s="1">
         <v>22.2</v>
       </c>
-      <c r="N19" s="1">
-        <v>21.2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="P19" s="1">
-        <v>21.4</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>21.6</v>
-      </c>
-      <c r="R19" s="1">
-        <v>22.3</v>
-      </c>
-      <c r="S19" s="1">
-        <v>21.9</v>
-      </c>
-      <c r="T19" s="1">
-        <v>20.6</v>
-      </c>
-      <c r="U19" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="V19" s="1">
-        <v>19.7</v>
-      </c>
-      <c r="W19" s="1">
-        <v>20.3</v>
-      </c>
-      <c r="X19" s="1">
-        <v>20.7</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>20.9</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>21.4</v>
-      </c>
       <c r="AA19" s="1">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" s="1">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="AC19" s="1">
-        <v>21.1</v>
+        <v>22</v>
       </c>
       <c r="AD19" s="1">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="AE19" s="1">
-        <v>21.2</v>
+        <v>22</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.3</v>
+        <v>22.2</v>
       </c>
       <c r="AG19" s="1">
-        <v>21.6</v>
+        <v>22.4</v>
       </c>
       <c r="AH19" s="1">
-        <v>21.7</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
